--- a/Keyboard.xlsx
+++ b/Keyboard.xlsx
@@ -1,17 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tekad\OneDrive\Documents\GitHub\redox-keyboard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85B929B3-98FF-4F37-A87E-EB593EBF5C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="615" yWindow="2100" windowWidth="17775" windowHeight="18705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Keyboard</t>
   </si>
@@ -37,9 +60,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Price Indivigual</t>
-  </si>
-  <si>
     <t>Price total</t>
   </si>
   <si>
@@ -49,9 +69,6 @@
     <t>Redox PCBs</t>
   </si>
   <si>
-    <t>Available here</t>
-  </si>
-  <si>
     <t>1N4148 diodes</t>
   </si>
   <si>
@@ -95,27 +112,73 @@
   </si>
   <si>
     <t>Optional RGB-underglow</t>
+  </si>
+  <si>
+    <t>1N4148 Diode</t>
+  </si>
+  <si>
+    <t>PKG Ammount</t>
+  </si>
+  <si>
+    <t>PKG Price</t>
+  </si>
+  <si>
+    <t>PKG Needed</t>
+  </si>
+  <si>
+    <t>https://42keebs.eu/shop/parts/components/1n4148-diodes-through-hole-smd/?attribute_type=Through-hole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://keeb.io/products/trrs-jack-3-5mm </t>
+  </si>
+  <si>
+    <t>PJ-320A TRRS Socket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://keeb.io/products/trrs-cable?pr_prod_strat=jac&amp;pr_rec_id=6b3297877&amp;pr_rec_pid=11428282758&amp;pr_ref_pid=10549934214&amp;pr_seq=uniform&amp;variant=46391966598 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://keeb.io/products/pro-micro-usb-c-version-5v-16mhz-arduino-compatible-atmega32u4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro Micro </t>
+  </si>
+  <si>
+    <t>4 pin reset switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://42keebs.eu/shop/parts/components/reset-switch/?attribute_type=Through-hole%204-pin%206x6&amp;attribute_pa_colour=black </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,39 +186,47 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -345,34 +416,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="8.13"/>
-    <col customWidth="1" min="3" max="3" width="35.13"/>
-    <col customWidth="1" min="4" max="4" width="43.75"/>
-    <col customWidth="1" min="5" max="5" width="5.13"/>
-    <col customWidth="1" min="6" max="6" width="4.0"/>
-    <col customWidth="1" min="7" max="7" width="12.25"/>
-    <col customWidth="1" min="8" max="8" width="8.38"/>
+    <col min="1" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -380,12 +456,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -402,126 +478,241 @@
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="1">
-        <v>70.0</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="J6">
+        <f>H6*I6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1"/>
+      <c r="J7">
+        <f t="shared" ref="J7:J16" si="0">H7*I7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="1">
-        <v>70.0</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>0.22</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0.32</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>9.99</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>70</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="1">
-        <v>70.0</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>27</v>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="seeed_xiao" ref="C2"/>
-    <hyperlink r:id="rId2" ref="D2"/>
+    <hyperlink ref="C2" r:id="rId1" location="seeed_xiao" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{3E0E0536-12D9-4DAE-8D0A-ECF555B3CFE3}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{1A8D782E-0694-4CA8-B9E0-6EE3EC4399D3}"/>
+    <hyperlink ref="F12" r:id="rId5" xr:uid="{EBD10FD0-0F6E-4578-AE21-4A6BF77D1475}"/>
+    <hyperlink ref="F11" r:id="rId6" xr:uid="{D7932248-0C28-4806-A586-10F9730B2B15}"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>